--- a/point.xlsx
+++ b/point.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madlogos/Documents/Projects/amap_pois/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FDB40-94B1-0445-9634-9FCA9CF544E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651A740E-750F-B149-B63A-4BF098F906A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="24940" windowHeight="14760" xr2:uid="{02F97A90-85CD-A144-87CB-3B82FB952144}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="24940" windowHeight="14740" xr2:uid="{02F97A90-85CD-A144-87CB-3B82FB952144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -827,8 +827,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1740,14 +1740,14 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">  {"name": "青浦徐泾派出所", "lnglat": [121.310536, 31.159438], "addr": "青浦区徐南路300号", "intro": "便民点", "type": "", "style": 1},</v>
+        <v xml:space="preserve">  {"name": "青浦徐泾派出所", "lnglat": [121.310536, 31.159438], "addr": "青浦区徐南路300号", "intro": "已关停", "type": "", "style": 5},</v>
       </c>
     </row>
     <row r="39" spans="1:8">
